--- a/medicine/Handicap/Institut_national_canadien_pour_les_aveugles/Institut_national_canadien_pour_les_aveugles.xlsx
+++ b/medicine/Handicap/Institut_national_canadien_pour_les_aveugles/Institut_national_canadien_pour_les_aveugles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut national canadien pour les aveugles (INCA) a été fondé en 1918. C'est un organisme caritatif communautaire national et enregistré qui se consacre à la recherche pour le aveugles, la vision partielle à l’éducation du public, et plus généralement à la santé visuelle au Canada[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut national canadien pour les aveugles (INCA) a été fondé en 1918. C'est un organisme caritatif communautaire national et enregistré qui se consacre à la recherche pour le aveugles, la vision partielle à l’éducation du public, et plus généralement à la santé visuelle au Canada. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été fondé en 1918 pour venir en aide aux vétérans de la Première Guerre mondiale dans le but « répondre à des besoins de base urgents : fournir de la nourriture, des vêtements et des refuges »[2]. « En 2008, INCA se consacre à la recherche, à l’éducation du public et à la santé visuelle de plus de 800 000 Canadiens qui vivent avec une importante perte de vision[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été fondé en 1918 pour venir en aide aux vétérans de la Première Guerre mondiale dans le but « répondre à des besoins de base urgents : fournir de la nourriture, des vêtements et des refuges ». « En 2008, INCA se consacre à la recherche, à l’éducation du public et à la santé visuelle de plus de 800 000 Canadiens qui vivent avec une importante perte de vision ».
 </t>
         </is>
       </c>
